--- a/ExcelData/CourseOutputData.xlsx
+++ b/ExcelData/CourseOutputData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
   <si>
     <t>Levels</t>
   </si>

--- a/ExcelData/CourseOutputData.xlsx
+++ b/ExcelData/CourseOutputData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="29">
   <si>
     <t>Levels</t>
   </si>
@@ -500,7 +500,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>16</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>17</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>27</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>28</v>
@@ -573,22 +573,22 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/CourseOutputData.xlsx
+++ b/ExcelData/CourseOutputData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="29">
   <si>
     <t>Levels</t>
   </si>
